--- a/data/panelapp/au/Hereditary Spastic Paraplegia - paediatric.xlsx
+++ b/data/panelapp/au/Hereditary Spastic Paraplegia - paediatric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Hereditary Spastic Paraplegia - paediatric</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252351</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -486,12 +496,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ADAR</t>
+          <t>ABHD16A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adenosine deaminase, RNA specific</t>
+          <t>abhydrolase domain containing 16A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,6 +512,11 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252365</t>
         </is>
       </c>
     </row>
@@ -511,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFG3L2</t>
+          <t>ADAR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFG3 like matrix AAA peptidase subunit 2</t>
+          <t>adenosine deaminase, RNA specific</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,6 +542,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252369</t>
         </is>
       </c>
     </row>
@@ -536,12 +556,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AIMP1</t>
+          <t>AFG3L2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
+          <t>AFG3 like matrix AAA peptidase subunit 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,6 +572,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252373</t>
         </is>
       </c>
     </row>
@@ -561,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALDH18A1</t>
+          <t>AIMP1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 18 family member A1</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -577,6 +602,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252376</t>
         </is>
       </c>
     </row>
@@ -586,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALDH3A2</t>
+          <t>ALDH18A1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 3 family member A2</t>
+          <t>aldehyde dehydrogenase 18 family member A1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,6 +632,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252380</t>
         </is>
       </c>
     </row>
@@ -611,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALS2</t>
+          <t>ALDH3A2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
+          <t>aldehyde dehydrogenase 3 family member A2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -627,6 +662,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252383</t>
         </is>
       </c>
     </row>
@@ -636,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AP4B1</t>
+          <t>ALS2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 beta 1 subunit</t>
+          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -652,6 +692,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252387</t>
         </is>
       </c>
     </row>
@@ -661,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AP4E1</t>
+          <t>AP4B1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 epsilon 1 subunit</t>
+          <t>adaptor related protein complex 4 beta 1 subunit</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -677,6 +722,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252390</t>
         </is>
       </c>
     </row>
@@ -686,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AP4M1</t>
+          <t>AP4E1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 mu 1 subunit</t>
+          <t>adaptor related protein complex 4 epsilon 1 subunit</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252393</t>
         </is>
       </c>
     </row>
@@ -711,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AP4S1</t>
+          <t>AP4M1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 sigma 1 subunit</t>
+          <t>adaptor related protein complex 4 mu 1 subunit</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -727,6 +782,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252397</t>
         </is>
       </c>
     </row>
@@ -736,12 +796,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARG1</t>
+          <t>AP4S1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>arginase 1</t>
+          <t>adaptor related protein complex 4 sigma 1 subunit</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -752,6 +812,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252400</t>
         </is>
       </c>
     </row>
@@ -761,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARL6IP1</t>
+          <t>ARG1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 6 interacting protein 1</t>
+          <t>arginase 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252470</t>
         </is>
       </c>
     </row>
@@ -786,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATAD3A</t>
+          <t>ARL6IP1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ATPase family, AAA domain containing 3A</t>
+          <t>ADP ribosylation factor like GTPase 6 interacting protein 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -802,6 +872,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252485</t>
         </is>
       </c>
     </row>
@@ -811,12 +886,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL1</t>
+          <t>ATAD3A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>atlastin GTPase 1</t>
+          <t>ATPase family, AAA domain containing 3A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -827,6 +902,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252490</t>
         </is>
       </c>
     </row>
@@ -836,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B4GALNT1</t>
+          <t>ATL1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>beta-1,4-N-acetyl-galactosaminyltransferase 1</t>
+          <t>atlastin GTPase 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -852,6 +932,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252493</t>
         </is>
       </c>
     </row>
@@ -861,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BCAS3</t>
+          <t>B4GALNT1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BCAS3, microtubule associated cell migration factor</t>
+          <t>beta-1,4-N-acetyl-galactosaminyltransferase 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -877,6 +962,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252497</t>
         </is>
       </c>
     </row>
@@ -886,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSCL2</t>
+          <t>BCAS3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BSCL2, seipin lipid droplet biogenesis associated</t>
+          <t>BCAS3, microtubule associated cell migration factor</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -902,6 +992,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252501</t>
         </is>
       </c>
     </row>
@@ -911,12 +1006,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C12orf65</t>
+          <t>BSCL2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chromosome 12 open reading frame 65</t>
+          <t>BSCL2, seipin lipid droplet biogenesis associated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -927,6 +1022,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252504</t>
         </is>
       </c>
     </row>
@@ -936,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C19orf12</t>
+          <t>C12orf65</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chromosome 19 open reading frame 12</t>
+          <t>chromosome 12 open reading frame 65</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -952,6 +1052,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252507</t>
         </is>
       </c>
     </row>
@@ -961,12 +1066,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>C19orf12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>chromosome 19 open reading frame 12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -977,6 +1082,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252510</t>
         </is>
       </c>
     </row>
@@ -986,12 +1096,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,6 +1112,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252513</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DARS</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1027,6 +1142,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252517</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DDHD1</t>
+          <t>DARS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DDHD domain containing 1</t>
+          <t>aspartyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1052,6 +1172,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252520</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DDHD2</t>
+          <t>DDHD1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DDHD domain containing 2</t>
+          <t>DDHD domain containing 1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1077,6 +1202,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252523</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ELOVL1</t>
+          <t>DDHD2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ELOVL fatty acid elongase 1</t>
+          <t>DDHD domain containing 2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1102,6 +1232,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252527</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENTPD1</t>
+          <t>ELOVL1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ectonucleoside triphosphate diphosphohydrolase 1</t>
+          <t>ELOVL fatty acid elongase 1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252530</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1276,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ERLIN1</t>
+          <t>ENTPD1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ER lipid raft associated 1</t>
+          <t>ectonucleoside triphosphate diphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1152,6 +1292,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252533</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ERLIN2</t>
+          <t>ERLIN1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ER lipid raft associated 2</t>
+          <t>ER lipid raft associated 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1177,6 +1322,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252536</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>ERLIN2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>ER lipid raft associated 2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1202,6 +1352,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252540</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1366,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FAR1</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>fatty acyl-CoA reductase 1</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1227,6 +1382,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252543</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FARS2</t>
+          <t>FAR1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>phenylalanyl-tRNA synthetase 2, mitochondrial</t>
+          <t>fatty acyl-CoA reductase 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1252,6 +1412,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252546</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GAN</t>
+          <t>FARS2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gigaxonin</t>
+          <t>phenylalanyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1277,6 +1442,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252549</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1456,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBA2</t>
+          <t>GAN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>glucosylceramidase beta 2</t>
+          <t>gigaxonin</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1302,6 +1472,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252553</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GLRX5</t>
+          <t>GBA2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>glutaredoxin 5</t>
+          <t>glucosylceramidase beta 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1327,6 +1502,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252556</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GPT2</t>
+          <t>GLRX5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>glutamic--pyruvic transaminase 2</t>
+          <t>glutaredoxin 5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1352,6 +1532,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252559</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1546,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HACE1</t>
+          <t>GPT2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HECT domain and ankyrin repeat containing E3 ubiquitin protein ligase 1</t>
+          <t>glutamic--pyruvic transaminase 2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1377,6 +1562,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252562</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1576,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>HACE1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>HECT domain and ankyrin repeat containing E3 ubiquitin protein ligase 1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1402,6 +1592,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252565</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1427,6 +1622,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252569</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IBA57</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1452,6 +1652,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252572</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IFIH1</t>
+          <t>IBA57</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>interferon induced with helicase C domain 1</t>
+          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252576</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KDM5C</t>
+          <t>IFIH1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lysine demethylase 5C</t>
+          <t>interferon induced with helicase C domain 1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252579</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KIDINS220</t>
+          <t>KDM5C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>kinase D interacting substrate 220</t>
+          <t>lysine demethylase 5C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252583</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KIF1A</t>
+          <t>KIDINS220</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>kinesin family member 1A</t>
+          <t>kinase D interacting substrate 220</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252586</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KIF1C</t>
+          <t>KIF1A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>kinesin family member 1C</t>
+          <t>kinesin family member 1A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252589</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KIF1C</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>kinesin family member 1C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252592</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KLC2</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>kinesin light chain 2</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252596</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>L1CAM</t>
+          <t>KLC2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L1 cell adhesion molecule</t>
+          <t>kinesin light chain 2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252599</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAG</t>
+          <t>L1CAM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>myelin associated glycoprotein</t>
+          <t>L1 cell adhesion molecule</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252602</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAPK8IP3</t>
+          <t>MAG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>mitogen-activated protein kinase 8 interacting protein 3</t>
+          <t>myelin associated glycoprotein</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252606</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MARS2</t>
+          <t>MAPK8IP3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase 2, mitochondrial</t>
+          <t>mitogen-activated protein kinase 8 interacting protein 3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252609</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MED27</t>
+          <t>MARS2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>mediator complex subunit 27</t>
+          <t>methionyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252612</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NIPA1</t>
+          <t>MED27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
+          <t>mediator complex subunit 27</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252616</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NKX6-2</t>
+          <t>NIPA1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NK6 homeobox 2</t>
+          <t>non imprinted in Prader-Willi/Angelman syndrome 1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252619</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NT5C2</t>
+          <t>NKX6-2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5'-nucleotidase, cytosolic II</t>
+          <t>NK6 homeobox 2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252622</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>OPA3</t>
+          <t>NT5C2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>OPA3, outer mitochondrial membrane lipid metabolism regulator</t>
+          <t>5'-nucleotidase, cytosolic II</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252626</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PCYT2</t>
+          <t>OPA3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
+          <t>OPA3, outer mitochondrial membrane lipid metabolism regulator</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252629</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PI4KA</t>
+          <t>PCYT2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>phosphatidylinositol 4-kinase alpha</t>
+          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252632</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>PI4KA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>phosphatidylinositol 4-kinase alpha</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252635</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RAB3GAP2</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252638</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>REEP1</t>
+          <t>RAB3GAP2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>receptor accessory protein 1</t>
+          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252641</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>REEP2</t>
+          <t>REEP1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>receptor accessory protein 2</t>
+          <t>receptor accessory protein 1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252644</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RNASEH2B</t>
+          <t>REEP2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit B</t>
+          <t>receptor accessory protein 2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252647</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RNF170</t>
+          <t>RNASEH2B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ring finger protein 170</t>
+          <t>ribonuclease H2 subunit B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252650</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RNU7-1</t>
+          <t>RNF170</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RNA, U7 small nuclear 1</t>
+          <t>ring finger protein 170</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252655</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RTN2</t>
+          <t>RNU7-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>reticulon 2</t>
+          <t>RNA, U7 small nuclear 1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252659</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SACS</t>
+          <t>RTN2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sacsin molecular chaperone</t>
+          <t>reticulon 2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252662</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SAMHD1</t>
+          <t>SACS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
+          <t>sacsin molecular chaperone</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252665</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SERAC1</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>serine active site containing 1</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252668</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SHMT2</t>
+          <t>SERAC1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>serine hydroxymethyltransferase 2</t>
+          <t>serine active site containing 1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252671</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SLC16A2</t>
+          <t>SHMT2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>solute carrier family 16 member 2</t>
+          <t>serine hydroxymethyltransferase 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252675</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SLC1A4</t>
+          <t>SLC16A2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>solute carrier family 1 member 4</t>
+          <t>solute carrier family 16 member 2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252678</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SLC2A1</t>
+          <t>SLC1A4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>solute carrier family 2 member 1</t>
+          <t>solute carrier family 1 member 4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252681</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SLC2A1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>solute carrier family 2 member 1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252684</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SPAST</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>spastin</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252687</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SPAST</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>spastin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252690</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SPG7</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252695</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TBCE</t>
+          <t>SPG7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>tubulin folding cofactor E</t>
+          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252699</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TECPR2</t>
+          <t>TBCE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>tectonin beta-propeller repeat containing 2</t>
+          <t>tubulin folding cofactor E</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252702</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TFG</t>
+          <t>TECPR2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TRK-fused gene</t>
+          <t>tectonin beta-propeller repeat containing 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252705</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>TFG</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TSPO associated protein 1</t>
+          <t>TRK-fused gene</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252709</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>TSPO associated protein 1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252712</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>UBAP1</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ubiquitin associated protein 1</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252715</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>UCHL1</t>
+          <t>UBAP1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ubiquitin C-terminal hydrolase L1</t>
+          <t>ubiquitin associated protein 1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252718</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WDR45B</t>
+          <t>UCHL1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WD repeat domain 45B</t>
+          <t>ubiquitin C-terminal hydrolase L1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252721</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>WDR45B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>WD repeat domain 45B</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252724</t>
         </is>
       </c>
     </row>
@@ -2611,22 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AAAS</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>aladin WD repeat nucleoporin</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252727</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ALK</t>
+          <t>AAAS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ALK receptor tyrosine kinase</t>
+          <t>aladin WD repeat nucleoporin</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252731</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AP5Z1</t>
+          <t>ALK</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 5 zeta 1 subunit</t>
+          <t>ALK receptor tyrosine kinase</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252734</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CCDC88C</t>
+          <t>AP5Z1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 88C</t>
+          <t>adaptor related protein complex 5 zeta 1 subunit</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252737</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DSTYK</t>
+          <t>CCDC88C</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>dual serine/threonine and tyrosine protein kinase</t>
+          <t>coiled-coil domain containing 88C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252740</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EXOSC3</t>
+          <t>DSTYK</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>exosome component 3</t>
+          <t>dual serine/threonine and tyrosine protein kinase</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252743</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GCH1</t>
+          <t>EXOSC3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase 1</t>
+          <t>exosome component 3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252748</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GJC2</t>
+          <t>GCH1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>gap junction protein gamma 2</t>
+          <t>GTP cyclohydrolase 1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252751</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IRF2BPL</t>
+          <t>GJC2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>interferon regulatory factor 2 binding protein like</t>
+          <t>gap junction protein gamma 2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252754</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PNPLA6</t>
+          <t>IRF2BPL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 6</t>
+          <t>interferon regulatory factor 2 binding protein like</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252757</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SEC31A</t>
+          <t>PNPLA6</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEC31 homolog A, COPII coat complex component</t>
+          <t>patatin like phospholipase domain containing 6</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252760</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SELENOI</t>
+          <t>SEC31A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>selenoprotein I</t>
+          <t>SEC31 homolog A, COPII coat complex component</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252763</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SOX10</t>
+          <t>SELENOI</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SRY-box 10</t>
+          <t>selenoprotein I</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252767</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>UNC80</t>
+          <t>SOX10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>unc-80 homolog, NALCN channel complex subunit</t>
+          <t>SRY-box 10</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252770</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USP8</t>
+          <t>UNC80</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ubiquitin specific peptidase 8</t>
+          <t>unc-80 homolog, NALCN channel complex subunit</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252773</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VAMP1</t>
+          <t>USP8</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>vesicle associated membrane protein 1</t>
+          <t>ubiquitin specific peptidase 8</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252776</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>VPS37A</t>
+          <t>VAMP1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VPS37A, ESCRT-I subunit</t>
+          <t>vesicle associated membrane protein 1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252779</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ACOX1</t>
+          <t>VPS37A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>acyl-CoA oxidase 1</t>
+          <t>VPS37A, ESCRT-I subunit</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252782</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMPD2</t>
+          <t>ACOX1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>adenosine monophosphate deaminase 2</t>
+          <t>acyl-CoA oxidase 1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252785</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ARSI</t>
+          <t>AMPD2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>arylsulfatase family member I</t>
+          <t>adenosine monophosphate deaminase 2</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252789</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ATP1A1</t>
+          <t>ARSI</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ATPase Na+/K+ transporting subunit alpha 1</t>
+          <t>arylsulfatase family member I</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252792</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CCT5</t>
+          <t>ATP1A1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>chaperonin containing TCP1 subunit 5</t>
+          <t>ATPase Na+/K+ transporting subunit alpha 1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252795</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CLPP</t>
+          <t>CCT5</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
+          <t>chaperonin containing TCP1 subunit 5</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252800</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>CLPP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>forkhead box G1</t>
+          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252804</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GAD1</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>glutamate decarboxylase 1</t>
+          <t>forkhead box G1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252807</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GRID2</t>
+          <t>GAD1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>glutamate ionotropic receptor delta type subunit 2</t>
+          <t>glutamate decarboxylase 1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252810</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HARS2</t>
+          <t>GRID2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
+          <t>glutamate ionotropic receptor delta type subunit 2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252813</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>IFRD1</t>
+          <t>HARS2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>interferon related developmental regulator 1</t>
+          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252817</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KLC4</t>
+          <t>IFRD1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>kinesin light chain 4</t>
+          <t>interferon related developmental regulator 1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252820</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LARS2</t>
+          <t>KLC4</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
+          <t>kinesin light chain 4</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252823</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>LARS2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase</t>
+          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252826</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MTPAP</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>mitochondrial poly(A) polymerase</t>
+          <t>methionyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252829</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PGAP1</t>
+          <t>MTPAP</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>post-GPI attachment to proteins 1</t>
+          <t>mitochondrial poly(A) polymerase</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252832</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>PGAP1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>seryl-tRNA synthetase 2, mitochondrial</t>
+          <t>post-GPI attachment to proteins 1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252835</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SLC19A3</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>solute carrier family 19 member 3</t>
+          <t>seryl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252839</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLC33A1</t>
+          <t>SLC19A3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>solute carrier family 33 member 1</t>
+          <t>solute carrier family 19 member 3</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252842</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>STXBP1</t>
+          <t>SLC33A1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>syntaxin binding protein 1</t>
+          <t>solute carrier family 33 member 1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252845</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TPP1</t>
+          <t>STXBP1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>tripeptidyl peptidase 1</t>
+          <t>syntaxin binding protein 1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252848</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TTR</t>
+          <t>TPP1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>transthyretin</t>
+          <t>tripeptidyl peptidase 1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252851</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>WDR48</t>
+          <t>TTR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>WD repeat domain 48</t>
+          <t>transthyretin</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252854</t>
         </is>
       </c>
     </row>
@@ -3611,22 +4246,57 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>WDR48</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>WD repeat domain 48</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252857</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>ZFR</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>zinc finger RNA binding protein</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Hereditary Spastic Paraplegia - paediatric</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:03.252860</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Hereditary Spastic Paraplegia - paediatric.xlsx
+++ b/data/panelapp/au/Hereditary Spastic Paraplegia - paediatric.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252351</t>
+          <t>2021-10-05 14:33:59.794970</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252365</t>
+          <t>2021-10-05 14:33:59.794979</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252369</t>
+          <t>2021-10-05 14:33:59.794982</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252373</t>
+          <t>2021-10-05 14:33:59.794985</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252376</t>
+          <t>2021-10-05 14:33:59.794988</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252380</t>
+          <t>2021-10-05 14:33:59.794991</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252383</t>
+          <t>2021-10-05 14:33:59.794993</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252387</t>
+          <t>2021-10-05 14:33:59.794996</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252390</t>
+          <t>2021-10-05 14:33:59.794999</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252393</t>
+          <t>2021-10-05 14:33:59.795001</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252397</t>
+          <t>2021-10-05 14:33:59.795004</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252400</t>
+          <t>2021-10-05 14:33:59.795007</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252470</t>
+          <t>2021-10-05 14:33:59.795009</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252485</t>
+          <t>2021-10-05 14:33:59.795012</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252490</t>
+          <t>2021-10-05 14:33:59.795015</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252493</t>
+          <t>2021-10-05 14:33:59.795017</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252497</t>
+          <t>2021-10-05 14:33:59.795020</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252501</t>
+          <t>2021-10-05 14:33:59.795023</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252504</t>
+          <t>2021-10-05 14:33:59.795026</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252507</t>
+          <t>2021-10-05 14:33:59.795028</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252510</t>
+          <t>2021-10-05 14:33:59.795031</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252513</t>
+          <t>2021-10-05 14:33:59.795034</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252517</t>
+          <t>2021-10-05 14:33:59.795036</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252520</t>
+          <t>2021-10-05 14:33:59.795039</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252523</t>
+          <t>2021-10-05 14:33:59.795043</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252527</t>
+          <t>2021-10-05 14:33:59.795045</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252530</t>
+          <t>2021-10-05 14:33:59.795048</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252533</t>
+          <t>2021-10-05 14:33:59.795050</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252536</t>
+          <t>2021-10-05 14:33:59.795053</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252540</t>
+          <t>2021-10-05 14:33:59.795056</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252543</t>
+          <t>2021-10-05 14:33:59.795058</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252546</t>
+          <t>2021-10-05 14:33:59.795061</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252549</t>
+          <t>2021-10-05 14:33:59.795064</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252553</t>
+          <t>2021-10-05 14:33:59.795067</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252556</t>
+          <t>2021-10-05 14:33:59.795070</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252559</t>
+          <t>2021-10-05 14:33:59.795072</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252562</t>
+          <t>2021-10-05 14:33:59.795075</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252565</t>
+          <t>2021-10-05 14:33:59.795077</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252569</t>
+          <t>2021-10-05 14:33:59.795080</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252572</t>
+          <t>2021-10-05 14:33:59.795083</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252576</t>
+          <t>2021-10-05 14:33:59.795086</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252579</t>
+          <t>2021-10-05 14:33:59.795089</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252583</t>
+          <t>2021-10-05 14:33:59.795092</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252586</t>
+          <t>2021-10-05 14:33:59.795094</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252589</t>
+          <t>2021-10-05 14:33:59.795097</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252592</t>
+          <t>2021-10-05 14:33:59.795100</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252596</t>
+          <t>2021-10-05 14:33:59.795103</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252599</t>
+          <t>2021-10-05 14:33:59.795106</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252602</t>
+          <t>2021-10-05 14:33:59.795108</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252606</t>
+          <t>2021-10-05 14:33:59.795111</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252609</t>
+          <t>2021-10-05 14:33:59.795113</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252612</t>
+          <t>2021-10-05 14:33:59.795116</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252616</t>
+          <t>2021-10-05 14:33:59.795119</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252619</t>
+          <t>2021-10-05 14:33:59.795122</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252622</t>
+          <t>2021-10-05 14:33:59.795125</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252626</t>
+          <t>2021-10-05 14:33:59.795127</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252629</t>
+          <t>2021-10-05 14:33:59.795130</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252632</t>
+          <t>2021-10-05 14:33:59.795133</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252635</t>
+          <t>2021-10-05 14:33:59.795136</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252638</t>
+          <t>2021-10-05 14:33:59.795138</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252641</t>
+          <t>2021-10-05 14:33:59.795141</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252644</t>
+          <t>2021-10-05 14:33:59.795144</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252647</t>
+          <t>2021-10-05 14:33:59.795147</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252650</t>
+          <t>2021-10-05 14:33:59.795150</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252655</t>
+          <t>2021-10-05 14:33:59.795153</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252659</t>
+          <t>2021-10-05 14:33:59.795156</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252662</t>
+          <t>2021-10-05 14:33:59.795159</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252665</t>
+          <t>2021-10-05 14:33:59.795162</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252668</t>
+          <t>2021-10-05 14:33:59.795164</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252671</t>
+          <t>2021-10-05 14:33:59.795167</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252675</t>
+          <t>2021-10-05 14:33:59.795170</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252678</t>
+          <t>2021-10-05 14:33:59.795172</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252681</t>
+          <t>2021-10-05 14:33:59.795175</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252684</t>
+          <t>2021-10-05 14:33:59.795178</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252687</t>
+          <t>2021-10-05 14:33:59.795180</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252690</t>
+          <t>2021-10-05 14:33:59.795183</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252695</t>
+          <t>2021-10-05 14:33:59.795188</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252699</t>
+          <t>2021-10-05 14:33:59.795191</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252702</t>
+          <t>2021-10-05 14:33:59.795194</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252705</t>
+          <t>2021-10-05 14:33:59.795197</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252709</t>
+          <t>2021-10-05 14:33:59.795199</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252712</t>
+          <t>2021-10-05 14:33:59.795202</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252715</t>
+          <t>2021-10-05 14:33:59.795205</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252718</t>
+          <t>2021-10-05 14:33:59.795207</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252721</t>
+          <t>2021-10-05 14:33:59.795210</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252724</t>
+          <t>2021-10-05 14:33:59.795213</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252727</t>
+          <t>2021-10-05 14:33:59.795215</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252731</t>
+          <t>2021-10-05 14:33:59.795218</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252734</t>
+          <t>2021-10-05 14:33:59.795220</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252737</t>
+          <t>2021-10-05 14:33:59.795223</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252740</t>
+          <t>2021-10-05 14:33:59.795226</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252743</t>
+          <t>2021-10-05 14:33:59.795228</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252748</t>
+          <t>2021-10-05 14:33:59.795232</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252751</t>
+          <t>2021-10-05 14:33:59.795235</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252754</t>
+          <t>2021-10-05 14:33:59.795238</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252757</t>
+          <t>2021-10-05 14:33:59.795241</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252760</t>
+          <t>2021-10-05 14:33:59.795244</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252763</t>
+          <t>2021-10-05 14:33:59.795246</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252767</t>
+          <t>2021-10-05 14:33:59.795249</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252770</t>
+          <t>2021-10-05 14:33:59.795251</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252773</t>
+          <t>2021-10-05 14:33:59.795254</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252776</t>
+          <t>2021-10-05 14:33:59.795256</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252779</t>
+          <t>2021-10-05 14:33:59.795259</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252782</t>
+          <t>2021-10-05 14:33:59.795262</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252785</t>
+          <t>2021-10-05 14:33:59.795265</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252789</t>
+          <t>2021-10-05 14:33:59.795267</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252792</t>
+          <t>2021-10-05 14:33:59.795270</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252795</t>
+          <t>2021-10-05 14:33:59.795272</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252800</t>
+          <t>2021-10-05 14:33:59.795277</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252804</t>
+          <t>2021-10-05 14:33:59.795280</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252807</t>
+          <t>2021-10-05 14:33:59.795283</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252810</t>
+          <t>2021-10-05 14:33:59.795286</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252813</t>
+          <t>2021-10-05 14:33:59.795289</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252817</t>
+          <t>2021-10-05 14:33:59.795292</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252820</t>
+          <t>2021-10-05 14:33:59.795294</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252823</t>
+          <t>2021-10-05 14:33:59.795297</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252826</t>
+          <t>2021-10-05 14:33:59.795300</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252829</t>
+          <t>2021-10-05 14:33:59.795302</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252832</t>
+          <t>2021-10-05 14:33:59.795305</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252835</t>
+          <t>2021-10-05 14:33:59.795308</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252839</t>
+          <t>2021-10-05 14:33:59.795311</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252842</t>
+          <t>2021-10-05 14:33:59.795313</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252845</t>
+          <t>2021-10-05 14:33:59.795316</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252848</t>
+          <t>2021-10-05 14:33:59.795319</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252851</t>
+          <t>2021-10-05 14:33:59.795321</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252854</t>
+          <t>2021-10-05 14:33:59.795324</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252857</t>
+          <t>2021-10-05 14:33:59.795327</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,91 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:03.252860</t>
+          <t>2021-10-05 14:33:59.795330</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hereditary Spastic Paraplegia - paediatric</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>317</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T05:19:06.692274Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:59.791653</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/317/?format=json</t>
         </is>
       </c>
     </row>
